--- a/ProgrammeSI.xlsx
+++ b/ProgrammeSI.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F0FE2-7C23-470D-BF1B-0ACFF37146E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856604BA-3F8D-459B-95E7-DB7F7A8BAB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Premiere" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="183">
   <si>
     <t>Compétences développées</t>
   </si>
@@ -717,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -777,7 +778,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -786,10 +796,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,19 +1084,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="68.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="101.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="68.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="101.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,30 +1121,30 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1144,8 +1154,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1153,8 +1163,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="24"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,9 +1172,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -1174,9 +1184,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
         <v>154</v>
       </c>
@@ -1184,9 +1194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1194,9 +1204,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
@@ -1204,9 +1214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
@@ -1214,8 +1224,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1225,8 +1235,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="24"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,8 +1244,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1245,8 +1255,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="24"/>
       <c r="C16" s="1" t="s">
         <v>152</v>
       </c>
@@ -1254,8 +1264,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1265,8 +1275,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="24"/>
       <c r="C18" s="1" t="s">
         <v>151</v>
       </c>
@@ -1274,20 +1284,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="18" t="s">
         <v>52</v>
@@ -1299,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="16" t="s">
         <v>182</v>
@@ -1311,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="17" t="s">
         <v>54</v>
@@ -1323,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
@@ -1333,8 +1343,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1344,8 +1354,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="24"/>
       <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1353,8 +1363,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="24"/>
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1362,8 +1372,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1373,8 +1383,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="24"/>
       <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1382,8 +1392,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="24"/>
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1391,8 +1401,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1402,8 +1412,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="24"/>
       <c r="C32" s="1" t="s">
         <v>156</v>
       </c>
@@ -1411,8 +1421,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1422,8 +1432,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="24"/>
       <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1431,8 +1441,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="24"/>
       <c r="C35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1440,8 +1450,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1451,8 +1461,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
+    <row r="37" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="24"/>
       <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1460,8 +1470,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="18" t="s">
@@ -1471,8 +1481,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="25"/>
       <c r="C39" s="18" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
@@ -1502,8 +1512,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1513,8 +1523,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="20"/>
+    <row r="43" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="24"/>
       <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
@@ -1522,8 +1532,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="20"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="24"/>
       <c r="C44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,8 +1541,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
+    <row r="45" spans="2:4" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="18" t="s">
@@ -1542,8 +1552,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="25"/>
       <c r="C46" s="18" t="s">
         <v>74</v>
       </c>
@@ -1551,8 +1561,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+    <row r="47" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B47" s="25"/>
       <c r="C47" s="18" t="s">
         <v>75</v>
       </c>
@@ -1560,8 +1570,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="25"/>
       <c r="C48" s="18" t="s">
         <v>76</v>
       </c>
@@ -1569,27 +1579,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -1600,8 +1610,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="25" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -1611,8 +1621,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="25"/>
       <c r="C54" s="3" t="s">
         <v>35</v>
       </c>
@@ -1620,8 +1630,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="1:5" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1631,8 +1641,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
@@ -1640,8 +1650,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="25"/>
       <c r="C57" s="3" t="s">
         <v>82</v>
       </c>
@@ -1649,8 +1659,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
         <v>83</v>
       </c>
@@ -1658,8 +1668,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="25" t="s">
         <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -1669,8 +1679,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="25"/>
       <c r="C60" s="3" t="s">
         <v>85</v>
       </c>
@@ -1678,8 +1688,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B61" s="25"/>
       <c r="C61" s="3" t="s">
         <v>86</v>
       </c>
@@ -1687,8 +1697,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="22" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -1698,8 +1708,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
+    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
@@ -1707,8 +1717,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
         <v>88</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
         <v>89</v>
       </c>
@@ -1727,8 +1737,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -1738,8 +1748,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="25"/>
       <c r="C67" s="3" t="s">
         <v>92</v>
       </c>
@@ -1747,8 +1757,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
+    <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="25"/>
       <c r="C68" s="3" t="s">
         <v>93</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="16" t="s">
         <v>95</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="C70" s="9" t="s">
         <v>39</v>
@@ -1776,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="C71" s="9" t="s">
         <v>96</v>
@@ -1785,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="11"/>
       <c r="C72" s="12" t="s">
         <v>97</v>
@@ -1794,8 +1804,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
+    <row r="73" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B73" s="26" t="s">
         <v>160</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -1805,8 +1815,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="25"/>
       <c r="C74" s="3" t="s">
         <v>45</v>
       </c>
@@ -1814,8 +1824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="25"/>
       <c r="C75" s="3" t="s">
         <v>99</v>
       </c>
@@ -1823,8 +1833,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="22" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="25" t="s">
         <v>161</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -1834,8 +1844,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="22"/>
+    <row r="77" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B77" s="25"/>
       <c r="C77" s="14" t="s">
         <v>101</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>103</v>
       </c>
@@ -1854,8 +1864,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="25" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -1865,8 +1875,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="22"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B81" s="25"/>
       <c r="C81" s="3" t="s">
         <v>105</v>
       </c>
@@ -1874,8 +1884,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="20" t="s">
+    <row r="82" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="24" t="s">
         <v>146</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -1885,8 +1895,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="20"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="24"/>
       <c r="C83" s="1" t="s">
         <v>106</v>
       </c>
@@ -1894,17 +1904,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="22" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B84" s="25" t="s">
         <v>107</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="22"/>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="25"/>
       <c r="C85" s="3" t="s">
         <v>145</v>
       </c>
@@ -1912,8 +1924,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="22"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="25"/>
       <c r="C86" s="3" t="s">
         <v>109</v>
       </c>
@@ -1921,8 +1933,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="22"/>
+    <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B87" s="25"/>
       <c r="C87" s="3" t="s">
         <v>162</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>110</v>
       </c>
@@ -1941,8 +1953,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="20" t="s">
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B89" s="24" t="s">
         <v>113</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -1952,8 +1964,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="20"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="24"/>
       <c r="C90" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,8 +1973,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="20"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="24"/>
       <c r="C91" s="1" t="s">
         <v>114</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>115</v>
       </c>
@@ -1981,7 +1993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>178</v>
       </c>
@@ -1992,48 +2004,48 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="19"/>
+      <c r="C96" s="27"/>
       <c r="D96" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="19"/>
+      <c r="C98" s="27"/>
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="20" t="s">
+    <row r="99" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="24" t="s">
         <v>165</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2043,8 +2055,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="20"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="24"/>
       <c r="C100" s="1" t="s">
         <v>121</v>
       </c>
@@ -2052,8 +2064,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="20"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="24"/>
       <c r="C101" s="1" t="s">
         <v>164</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
         <v>166</v>
       </c>
@@ -2072,8 +2084,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B103" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -2083,8 +2095,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="22"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
         <v>45</v>
       </c>
@@ -2092,8 +2104,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="22"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B105" s="25"/>
       <c r="C105" s="3" t="s">
         <v>99</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>169</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>124</v>
       </c>
@@ -2123,8 +2135,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B108" s="24" t="s">
         <v>126</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -2134,8 +2146,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B109" s="24"/>
       <c r="C109" s="1" t="s">
         <v>127</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
@@ -2154,27 +2166,27 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="20"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>130</v>
       </c>
@@ -2185,27 +2197,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D114" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="19"/>
+      <c r="C115" s="27"/>
       <c r="D115" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116" s="14" t="s">
         <v>135</v>
       </c>
@@ -2216,56 +2228,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C118" s="19"/>
+      <c r="C118" s="27"/>
       <c r="D118" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="19"/>
+      <c r="C119" s="27"/>
       <c r="D119" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B120" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D120" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="19"/>
+      <c r="C121" s="27"/>
       <c r="D121" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122" s="14" t="s">
         <v>141</v>
       </c>
@@ -2278,25 +2290,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B42:B44"/>
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B7"/>
@@ -2313,6 +2306,793 @@
     <mergeCell ref="C117:C119"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B89:B91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D0C777-A70B-4E98-BFDC-699AFD78CC9F}">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" style="20" customWidth="1"/>
+    <col min="2" max="3" width="68.26953125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="101.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="25"/>
+      <c r="C16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="25"/>
+      <c r="C18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="25"/>
+      <c r="C19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="25"/>
+      <c r="C20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="25"/>
+      <c r="C23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="25"/>
+      <c r="C25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="25"/>
+      <c r="C26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="25"/>
+      <c r="C27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="25"/>
+      <c r="C29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="25"/>
+      <c r="C30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="25"/>
+      <c r="C32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="25"/>
+      <c r="C33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="25"/>
+      <c r="C35" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="25"/>
+      <c r="C42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="25"/>
+      <c r="C43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="25"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="25"/>
+      <c r="C47" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="25"/>
+      <c r="C49" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="25"/>
+      <c r="C50" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B51" s="25"/>
+      <c r="C51" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B55" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="19">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B57" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="24"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="24"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="25"/>
+      <c r="C64" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="25"/>
+      <c r="C65" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="24"/>
+      <c r="E71" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B78" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B80" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="2:4" ht="129.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
